--- a/absensi.xlsx
+++ b/absensi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,13 +390,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -635,6 +639,678 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>dhifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:39</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:39</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:39</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:39</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:40</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:40</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:40</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:40</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:40</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:40</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:40</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:41</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:41</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:41</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:41</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:41</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:41</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:42</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:42</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:42</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:42</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:42</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:43</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:43</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:43</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:43</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:44</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:44</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:44</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:44</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:44</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:44</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:45</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:45</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:45</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:45</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:45</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:45</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:46</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:46</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:46</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:46</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:46</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:46</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:48</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:49</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:49</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:49</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:49</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:49</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:49</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:50</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:50</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Paijo</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-07-12 09:54:50</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Paijo</t>
         </is>
       </c>
     </row>
